--- a/SchedulingData/static3/pso/scheduling1_9.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_9.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.09999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="E2" t="n">
-        <v>25.06</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="3">
@@ -485,302 +485,302 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>135.8</v>
+        <v>59.46</v>
       </c>
       <c r="E3" t="n">
-        <v>19.72</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.3</v>
+        <v>60.88</v>
       </c>
       <c r="E4" t="n">
-        <v>26.6</v>
+        <v>25.112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.04</v>
+        <v>85.2</v>
       </c>
       <c r="E5" t="n">
-        <v>27.296</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>59.46</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3</v>
+        <v>136</v>
       </c>
       <c r="E6" t="n">
-        <v>27.36</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>135.8</v>
+        <v>60.88</v>
       </c>
       <c r="D7" t="n">
-        <v>190.88</v>
+        <v>139.68</v>
       </c>
       <c r="E7" t="n">
-        <v>16.332</v>
+        <v>19.832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>190.88</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242.58</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>13.772</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80.3</v>
+        <v>85.2</v>
       </c>
       <c r="D9" t="n">
-        <v>128.84</v>
+        <v>140.28</v>
       </c>
       <c r="E9" t="n">
-        <v>24.356</v>
+        <v>21.272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>242.58</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>294.88</v>
+        <v>142.2</v>
       </c>
       <c r="E10" t="n">
-        <v>10.172</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>203.84</v>
       </c>
       <c r="E11" t="n">
-        <v>26.16</v>
+        <v>20.476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.3</v>
+        <v>142.2</v>
       </c>
       <c r="D12" t="n">
-        <v>112.2</v>
+        <v>189.6</v>
       </c>
       <c r="E12" t="n">
-        <v>22.08</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>167.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>18.16</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>167.7</v>
+        <v>48.3</v>
       </c>
       <c r="D14" t="n">
-        <v>236.6</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>13.4</v>
+        <v>24.056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>65.88</v>
+        <v>159.92</v>
       </c>
       <c r="E15" t="n">
-        <v>25.112</v>
+        <v>19.448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>140.28</v>
       </c>
       <c r="D16" t="n">
-        <v>134.4</v>
+        <v>205.06</v>
       </c>
       <c r="E16" t="n">
-        <v>20.84</v>
+        <v>16.904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>65.88</v>
+        <v>203.84</v>
       </c>
       <c r="D17" t="n">
-        <v>123.28</v>
+        <v>240.74</v>
       </c>
       <c r="E17" t="n">
-        <v>20.012</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>134.4</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>206.04</v>
+        <v>120.8</v>
       </c>
       <c r="E18" t="n">
-        <v>17.276</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>128.84</v>
+        <v>159.92</v>
       </c>
       <c r="D19" t="n">
-        <v>218.62</v>
+        <v>210</v>
       </c>
       <c r="E19" t="n">
-        <v>19.988</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="20">
@@ -808,112 +808,112 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>123.28</v>
+        <v>205.06</v>
       </c>
       <c r="D20" t="n">
-        <v>182.14</v>
+        <v>266.88</v>
       </c>
       <c r="E20" t="n">
-        <v>16.756</v>
+        <v>14.352</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>206.04</v>
+        <v>120.8</v>
       </c>
       <c r="D21" t="n">
-        <v>275.92</v>
+        <v>174.64</v>
       </c>
       <c r="E21" t="n">
-        <v>12.908</v>
+        <v>18.976</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>182.14</v>
+        <v>174.64</v>
       </c>
       <c r="D22" t="n">
-        <v>249.32</v>
+        <v>250.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.148</v>
+        <v>15.056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>249.32</v>
+        <v>139.68</v>
       </c>
       <c r="D23" t="n">
-        <v>296.04</v>
+        <v>203.48</v>
       </c>
       <c r="E23" t="n">
-        <v>9.596</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>236.6</v>
+        <v>189.6</v>
       </c>
       <c r="D24" t="n">
-        <v>282.76</v>
+        <v>264.3</v>
       </c>
       <c r="E24" t="n">
-        <v>9.923999999999999</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34.04</v>
+        <v>203.48</v>
       </c>
       <c r="D25" t="n">
-        <v>93.18000000000001</v>
+        <v>249.64</v>
       </c>
       <c r="E25" t="n">
-        <v>23.992</v>
+        <v>11.596</v>
       </c>
     </row>
   </sheetData>
